--- a/Measurements/Test 3 - No obstacles VamiaV0/Statistics3.xlsx
+++ b/Measurements/Test 3 - No obstacles VamiaV0/Statistics3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\CodeFromGithub\SerialPortRead\Vamia-SerialPortReading\Measurements\Test 3 - No obstacles VamiaV0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 3 - No obstacles VamiaV0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C02FA5C-D65A-4AB4-8D72-741F848937B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7AB0E8-BF6B-4AA1-9D44-1D4485350F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1269,16 +1267,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1591,15 +1589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1611,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1634,8 +1632,15 @@
         <f>10*$G$1*LOG(A2/100, 10)+$F$1</f>
         <v>#NUM!</v>
       </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>POWER(10,(E2-$F$1)/(10*$G$1))*100</f>
+        <v>10.895694104353964</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1656,8 +1661,15 @@
         <f t="shared" ref="F3:F21" si="1">10*$G$1*LOG(A3/100, 10)+$F$1</f>
         <v>43.817509926287684</v>
       </c>
+      <c r="H3" s="1">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" si="2">POWER(10,(E3-$F$1)/(10*$G$1))*100</f>
+        <v>13.170669235432172</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -1678,8 +1690,15 @@
         <f t="shared" si="1"/>
         <v>48.935019852575365</v>
       </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>14.677992676220683</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1700,8 +1719,15 @@
         <f t="shared" si="1"/>
         <v>51.928571256521948</v>
       </c>
+      <c r="H5" s="1">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>55.352501822582809</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -1722,8 +1748,15 @@
         <f t="shared" si="1"/>
         <v>54.052529778863047</v>
       </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>100.4525080125163</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1744,8 +1777,15 @@
         <f t="shared" si="1"/>
         <v>55.7</v>
       </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>45.791441345065806</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -1766,8 +1806,15 @@
         <f t="shared" si="1"/>
         <v>57.046081182809623</v>
       </c>
+      <c r="H8" s="1">
+        <v>120</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>96.889008090955741</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -1788,8 +1835,15 @@
         <f t="shared" si="1"/>
         <v>58.184176606530052</v>
       </c>
+      <c r="H9" s="1">
+        <v>140</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>111.94884258038485</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -1810,8 +1864,15 @@
         <f t="shared" si="1"/>
         <v>59.170039705150728</v>
       </c>
+      <c r="H10" s="1">
+        <v>160</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>132.90135589851747</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -1832,8 +1893,15 @@
         <f t="shared" si="1"/>
         <v>60.039632586756206</v>
       </c>
+      <c r="H11" s="1">
+        <v>180</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>239.01842072885051</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -1854,8 +1922,15 @@
         <f t="shared" si="1"/>
         <v>60.817509926287684</v>
       </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>352.41860156398235</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -1876,8 +1951,15 @@
         <f t="shared" si="1"/>
         <v>62.163591109097304</v>
       </c>
+      <c r="H13" s="1">
+        <v>240</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>205.00511914680786</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -1898,8 +1980,15 @@
         <f t="shared" si="1"/>
         <v>63.301686532817726</v>
       </c>
+      <c r="H14" s="1">
+        <v>280</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>313.38516308650213</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -1920,8 +2009,15 @@
         <f t="shared" si="1"/>
         <v>64.287549631438409</v>
       </c>
+      <c r="H15" s="1">
+        <v>320</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>327.85836933913055</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -1942,8 +2038,15 @@
         <f t="shared" si="1"/>
         <v>65.15714251304388</v>
       </c>
+      <c r="H16" s="1">
+        <v>360</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>281.20277870087114</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -1964,8 +2067,15 @@
         <f t="shared" si="1"/>
         <v>65.935019852575365</v>
       </c>
+      <c r="H17" s="1">
+        <v>400</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>276.16998133438477</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -1986,8 +2096,15 @@
         <f t="shared" si="1"/>
         <v>66.638695500265186</v>
       </c>
+      <c r="H18" s="1">
+        <v>440</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>382.25479435982811</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -2008,8 +2125,15 @@
         <f t="shared" si="1"/>
         <v>67.281101035384978</v>
       </c>
+      <c r="H19" s="1">
+        <v>480</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>358.84091944691147</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -2030,8 +2154,15 @@
         <f t="shared" si="1"/>
         <v>67.87205684179159</v>
       </c>
+      <c r="H20" s="1">
+        <v>520</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>579.08871012454449</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -2051,6 +2182,13 @@
       <c r="F21">
         <f t="shared" si="1"/>
         <v>68.419196459105407</v>
+      </c>
+      <c r="H21" s="1">
+        <v>560</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>519.62049765698896</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Test 3 - No obstacles VamiaV0/Statistics3.xlsx
+++ b/Measurements/Test 3 - No obstacles VamiaV0/Statistics3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 3 - No obstacles VamiaV0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7AB0E8-BF6B-4AA1-9D44-1D4485350F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144FC5B-44FD-4CD1-988E-8D4D8C7AFD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
@@ -43,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +77,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,17 +118,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,6 +162,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Vamia Gateway</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> with Normal Antenna - No obstacles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -167,6 +229,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Real RSSI</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -333,6 +398,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Computed RSSI</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -573,6 +641,7 @@
         <c:axId val="537264784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1589,15 +1658,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H3" sqref="H3:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1683,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1640,7 +1712,7 @@
         <v>10.895694104353964</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1668,8 +1740,12 @@
         <f t="shared" ref="I3:I21" si="2">POWER(10,(E3-$F$1)/(10*$G$1))*100</f>
         <v>13.170669235432172</v>
       </c>
+      <c r="J3" s="2">
+        <f>(I3-H3)/H3</f>
+        <v>-0.3414665382283914</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -1697,8 +1773,12 @@
         <f t="shared" si="2"/>
         <v>14.677992676220683</v>
       </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J21" si="3">(I4-H4)/H4</f>
+        <v>-0.63305018309448291</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1726,8 +1806,12 @@
         <f t="shared" si="2"/>
         <v>55.352501822582809</v>
       </c>
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7458302956953176E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -1755,8 +1839,12 @@
         <f t="shared" si="2"/>
         <v>100.4525080125163</v>
       </c>
+      <c r="J6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25565635015645383</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1784,8 +1872,12 @@
         <f t="shared" si="2"/>
         <v>45.791441345065806</v>
       </c>
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.54208558654934191</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -1813,8 +1905,12 @@
         <f t="shared" si="2"/>
         <v>96.889008090955741</v>
       </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.19259159924203548</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -1842,8 +1938,12 @@
         <f t="shared" si="2"/>
         <v>111.94884258038485</v>
       </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.20036541014010822</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -1871,8 +1971,12 @@
         <f t="shared" si="2"/>
         <v>132.90135589851747</v>
       </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.16936652563426585</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -1900,8 +2004,12 @@
         <f t="shared" si="2"/>
         <v>239.01842072885051</v>
       </c>
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.32788011516028065</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -1929,8 +2037,12 @@
         <f t="shared" si="2"/>
         <v>352.41860156398235</v>
       </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.76209300781991174</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -1958,8 +2070,12 @@
         <f t="shared" si="2"/>
         <v>205.00511914680786</v>
       </c>
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.14581200355496726</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -1987,8 +2103,12 @@
         <f t="shared" si="2"/>
         <v>313.38516308650213</v>
       </c>
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11923272530893618</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -2016,8 +2136,12 @@
         <f t="shared" si="2"/>
         <v>327.85836933913055</v>
       </c>
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4557404184782961E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -2045,8 +2169,12 @@
         <f t="shared" si="2"/>
         <v>281.20277870087114</v>
       </c>
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.21888117027535794</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -2074,8 +2202,12 @@
         <f t="shared" si="2"/>
         <v>276.16998133438477</v>
       </c>
+      <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.30957504666403807</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -2103,8 +2235,12 @@
         <f t="shared" si="2"/>
         <v>382.25479435982811</v>
       </c>
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.1312391037276634</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -2132,8 +2268,12 @@
         <f t="shared" si="2"/>
         <v>358.84091944691147</v>
       </c>
+      <c r="J19" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.25241475115226775</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -2161,8 +2301,12 @@
         <f t="shared" si="2"/>
         <v>579.08871012454449</v>
       </c>
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11363213485489325</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -2189,6 +2333,16 @@
       <c r="I21">
         <f t="shared" si="2"/>
         <v>519.62049765698896</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.2106254183948282E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" cm="1">
+        <f t="array" ref="J24">SUM(ABS(J3:J21))/COUNT(J3:J21)</f>
+        <v>0.25734022173100424</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Test 3 - No obstacles VamiaV0/Statistics3.xlsx
+++ b/Measurements/Test 3 - No obstacles VamiaV0/Statistics3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 3 - No obstacles VamiaV0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\Proyects\Work\Vamia-SerialPortReading\Measurements\Test 3 - No obstacles VamiaV0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144FC5B-44FD-4CD1-988E-8D4D8C7AFD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C90343-A93E-4169-8F08-4D4D57994EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,61 +498,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>43.817509926287684</c:v>
+                  <c:v>39.719569917615644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.935019852575365</c:v>
+                  <c:v>45.439139835231288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.928571256521948</c:v>
+                  <c:v>48.784873757289226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.052529778863047</c:v>
+                  <c:v>51.158709752846931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.7</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.046081182809623</c:v>
+                  <c:v>54.50444367490487</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.184176606530052</c:v>
+                  <c:v>55.776432677886518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.170039705150728</c:v>
+                  <c:v>56.878279670462568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.039632586756206</c:v>
+                  <c:v>57.850177596962816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.817509926287684</c:v>
+                  <c:v>58.719569917615644</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.163591109097304</c:v>
+                  <c:v>60.224013592520514</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.301686532817726</c:v>
+                  <c:v>61.496002595502162</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.287549631438409</c:v>
+                  <c:v>62.597849588078212</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.15714251304388</c:v>
+                  <c:v>63.569747514578452</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.935019852575365</c:v>
+                  <c:v>64.439139835231288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.638695500265186</c:v>
+                  <c:v>65.225600853237566</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67.281101035384978</c:v>
+                  <c:v>65.94358351013615</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.87205684179159</c:v>
+                  <c:v>66.604063529061179</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.419196459105407</c:v>
+                  <c:v>67.215572513117806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,16 +1660,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J21" sqref="H3:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,13 +1677,13 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>55.7</v>
+        <v>53</v>
       </c>
       <c r="G1">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1709,10 +1709,10 @@
       </c>
       <c r="I2">
         <f>POWER(10,(E2-$F$1)/(10*$G$1))*100</f>
-        <v>10.895694104353964</v>
+        <v>19.085421440066881</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1731,21 +1731,21 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F21" si="1">10*$G$1*LOG(A3/100, 10)+$F$1</f>
-        <v>43.817509926287684</v>
+        <v>39.719569917615644</v>
       </c>
       <c r="H3" s="1">
         <v>20</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I21" si="2">POWER(10,(E3-$F$1)/(10*$G$1))*100</f>
-        <v>13.170669235432172</v>
+        <v>22.614446618570213</v>
       </c>
       <c r="J3" s="2">
         <f>(I3-H3)/H3</f>
-        <v>-0.3414665382283914</v>
+        <v>0.13072233092851065</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -1764,21 +1764,21 @@
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>48.935019852575365</v>
+        <v>45.439139835231288</v>
       </c>
       <c r="H4" s="1">
         <v>40</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>14.677992676220683</v>
+        <v>24.916740436271336</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ref="J4:J21" si="3">(I4-H4)/H4</f>
-        <v>-0.63305018309448291</v>
+        <v>-0.37708148909321659</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1797,21 +1797,21 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>51.928571256521948</v>
+        <v>48.784873757289226</v>
       </c>
       <c r="H5" s="1">
         <v>60</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>55.352501822582809</v>
+        <v>81.711033154572092</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="3"/>
-        <v>-7.7458302956953176E-2</v>
+        <v>0.36185055257620152</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -1830,21 +1830,21 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>54.052529778863047</v>
+        <v>51.158709752846931</v>
       </c>
       <c r="H6" s="1">
         <v>80</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>100.4525080125163</v>
+        <v>139.27066494294618</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="3"/>
-        <v>0.25565635015645383</v>
+        <v>0.74088331178682731</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1863,21 +1863,21 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>55.7</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>45.791441345065806</v>
+        <v>68.959879070296637</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="3"/>
-        <v>-0.54208558654934191</v>
+        <v>-0.31040120929703363</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -1896,21 +1896,21 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>57.046081182809623</v>
+        <v>54.50444367490487</v>
       </c>
       <c r="H8" s="1">
         <v>120</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>96.889008090955741</v>
+        <v>134.84180624978094</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>-0.19259159924203548</v>
+        <v>0.12368171874817453</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -1929,21 +1929,21 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>58.184176606530052</v>
+        <v>55.776432677886518</v>
       </c>
       <c r="H9" s="1">
         <v>140</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>111.94884258038485</v>
+        <v>153.44930023274225</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>-0.20036541014010822</v>
+        <v>9.6066430233873179E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -1962,21 +1962,21 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>59.170039705150728</v>
+        <v>56.878279670462568</v>
       </c>
       <c r="H10" s="1">
         <v>160</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>132.90135589851747</v>
+        <v>178.9087489923219</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>-0.16936652563426585</v>
+        <v>0.1181796812020119</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -1995,21 +1995,21 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>60.039632586756206</v>
+        <v>57.850177596962816</v>
       </c>
       <c r="H11" s="1">
         <v>180</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>239.01842072885051</v>
+        <v>302.48354515613352</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
-        <v>0.32788011516028065</v>
+        <v>0.68046413975629727</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -2028,21 +2028,21 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>60.817509926287684</v>
+        <v>58.719569917615644</v>
       </c>
       <c r="H12" s="1">
         <v>200</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>352.41860156398235</v>
+        <v>428.13323987193934</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="3"/>
-        <v>0.76209300781991174</v>
+        <v>1.1406661993596967</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -2061,21 +2061,21 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>62.163591109097304</v>
+        <v>60.224013592520514</v>
       </c>
       <c r="H13" s="1">
         <v>240</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>205.00511914680786</v>
+        <v>263.66508987303581</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
-        <v>-0.14581200355496726</v>
+        <v>9.8604541137649215E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -2094,21 +2094,21 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>63.301686532817726</v>
+        <v>61.496002595502162</v>
       </c>
       <c r="H14" s="1">
         <v>280</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>313.38516308650213</v>
+        <v>385.44721517926558</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
-        <v>0.11923272530893618</v>
+        <v>0.37659719706880568</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -2127,21 +2127,21 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>64.287549631438409</v>
+        <v>62.597849588078212</v>
       </c>
       <c r="H15" s="1">
         <v>320</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>327.85836933913055</v>
+        <v>401.33660442370643</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
-        <v>2.4557404184782961E-2</v>
+        <v>0.25417688882408263</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -2160,21 +2160,21 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>65.15714251304388</v>
+        <v>63.569747514578452</v>
       </c>
       <c r="H16" s="1">
         <v>360</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>281.20277870087114</v>
+        <v>349.83209357750411</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
-        <v>-0.21888117027535794</v>
+        <v>-2.8244184506933025E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -2193,21 +2193,21 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>65.935019852575365</v>
+        <v>64.439139835231288</v>
       </c>
       <c r="H17" s="1">
         <v>400</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>276.16998133438477</v>
+        <v>344.2247595686091</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>-0.30957504666403807</v>
+        <v>-0.13943810107847723</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -2226,21 +2226,21 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>66.638695500265186</v>
+        <v>65.225600853237566</v>
       </c>
       <c r="H18" s="1">
         <v>440</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>382.25479435982811</v>
+        <v>460.42393767587788</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
-        <v>-0.1312391037276634</v>
+        <v>4.6418040172449729E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -2259,21 +2259,21 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>67.281101035384978</v>
+        <v>65.94358351013615</v>
       </c>
       <c r="H19" s="1">
         <v>480</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>358.84091944691147</v>
+        <v>435.10742173869687</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>-0.25241475115226775</v>
+        <v>-9.352620471104818E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -2292,21 +2292,21 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>67.87205684179159</v>
+        <v>66.604063529061179</v>
       </c>
       <c r="H20" s="1">
         <v>520</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>579.08871012454449</v>
+        <v>667.66929391875703</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
-        <v>0.11363213485489325</v>
+        <v>0.28397941138222504</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -2325,24 +2325,24 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>68.419196459105407</v>
+        <v>67.215572513117806</v>
       </c>
       <c r="H21" s="1">
         <v>560</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>519.62049765698896</v>
+        <v>605.97699947159174</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
-        <v>-7.2106254183948282E-2</v>
+        <v>8.2101784770699529E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J24" s="3" cm="1">
         <f t="array" ref="J24">SUM(ABS(J3:J21))/COUNT(J3:J21)</f>
-        <v>0.25734022173100424</v>
+        <v>0.2885833377175902</v>
       </c>
     </row>
   </sheetData>
